--- a/parameter_setting/load_parameters_small_case.xlsx
+++ b/parameter_setting/load_parameters_small_case.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2C2B4A-9C9B-4152-B537-E8A0B67ED876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE34EB-04E5-4A85-AADB-4E076EE56BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nominal_power" sheetId="1" r:id="rId1"/>
     <sheet name="processing_time" sheetId="2" r:id="rId2"/>
+    <sheet name="melting_power_ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>max waiting time/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +475,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB37D5A-FA9B-4B54-8980-DB4BE9BDDF22}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1.33334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>